--- a/pearson_tables/t2m_netherlands-2-8.xlsx
+++ b/pearson_tables/t2m_netherlands-2-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8931948405871161</v>
+        <v>-0.8907367373884217</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7108592554500345</v>
+        <v>0.7669017931388056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7678901799676352</v>
+        <v>0.7428693640827839</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.659103303797076</v>
+        <v>0.5962233087516597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5619041825038781</v>
+        <v>-0.5704045726661989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6963984354689564</v>
+        <v>0.7137775600844258</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8051836520857453</v>
+        <v>-0.7461621130731895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6400531912489447</v>
+        <v>0.6410763752544432</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6051461536524217</v>
+        <v>0.6548595919230661</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6702966009238946</v>
+        <v>0.689057761770427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5502685027270845</v>
+        <v>0.6145248210607654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4810932530035651</v>
+        <v>0.4847682382022319</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6447473818715287</v>
+        <v>0.635789432315277</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6889904583683482</v>
+        <v>-0.6901269622900971</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5842823984567949</v>
+        <v>0.5900641550764121</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7647829995734612</v>
+        <v>0.7542379233426603</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5923475737647271</v>
+        <v>-0.5802153095351402</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.706764743881829</v>
+        <v>0.7239421788580264</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7173220788151503</v>
+        <v>-0.7145350778500471</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6701040919685562</v>
+        <v>0.7747217287508602</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7628594781345912</v>
+        <v>-0.6822174105333796</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8215162106727002</v>
+        <v>0.7885243520054063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8127989210393872</v>
+        <v>-0.7807334039691967</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6991974403335576</v>
+        <v>-0.6944669369326431</v>
       </c>
     </row>
   </sheetData>

--- a/pearson_tables/t2m_netherlands-2-8.xlsx
+++ b/pearson_tables/t2m_netherlands-2-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8907367373884217</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7669017931388056</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7428693640827839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5962233087516597</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5704045726661989</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7137775600844258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7461621130731895</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6410763752544432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6548595919230661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.689057761770427</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6145248210607654</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4847682382022319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.635789432315277</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6901269622900971</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5900641550764121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7542379233426603</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5802153095351402</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7239421788580264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7145350778500471</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7747217287508602</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6822174105333796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7885243520054063</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7807334039691967</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6944669369326431</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
